--- a/rcads/data/xls/80_Persons.xlsx
+++ b/rcads/data/xls/80_Persons.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="80_Persons"/>
+    <sheet sheetId="1" r:id="rId1" name="_80_Persons"/>
   </sheets>
+  <definedNames>
+    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$77</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,37 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,42 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,98 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,382 +343,1212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="20.359375"/>
-    <col customWidth="true" min="3" max="3" width="20.359375"/>
-    <col customWidth="true" min="4" max="4" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>PersonID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>PersonName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>ORCID</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>AmbiguousID</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Bruce F. Chorpita</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>0000-0001-7454-464X</t>
         </is>
       </c>
-      <c r="D2" s="6" t="b">
+      <c r="D2" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Susan H. Spence</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>0000-0002-7022-6676</t>
         </is>
       </c>
-      <c r="D3" s="6" t="b">
+      <c r="D3" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Kimberly D. Becker</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>0000-0003-2381-8588</t>
         </is>
       </c>
-      <c r="D4" s="6" t="b">
+      <c r="D4" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Barbara Caplan</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>0000-0003-0563-5411</t>
         </is>
       </c>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Chad Ebesutani</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>0000-0002-8133-6440</t>
         </is>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>Steven P. Reise</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>000-0002-5408-6992</t>
         </is>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Chelsea Ale</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>0000-0002-0263-9989</t>
         </is>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>Jennifer Regan</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>0000-0001-6524-3140</t>
         </is>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>John Young</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="0" t="b">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>Charmaine Higa-McMillan</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>0000-0003-0134-5767</t>
         </is>
       </c>
-      <c r="D11" s="6" t="b">
+      <c r="D11" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>John R. Weisz</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="6" t="b">
+      <c r="D12" s="0" t="b">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>Brad J. Nakamura</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>0000-0001-8246-3479</t>
         </is>
       </c>
-      <c r="D13" s="6" t="b">
+      <c r="D13" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>Adam D. Bernstein</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="6" t="b">
+      <c r="D14" s="0" t="b">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>Alayna Park</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>0000-0001-8869-4438</t>
         </is>
       </c>
-      <c r="D15" s="6" t="b">
+      <c r="D15" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Manuel Sprung</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>0000-0003-0315-0912</t>
         </is>
       </c>
-      <c r="D16" s="6" t="b">
+      <c r="D16" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>Deepika Bose</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="6" t="b">
-        <v>0</v>
+      <c r="D17" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Antonio Polo</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="6" t="b">
-        <v>0</v>
+      <c r="D18" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>Adriana Rodriguez</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="6" t="b">
-        <v>0</v>
+      <c r="D19" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>Silvia Henriquez</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="6" t="b">
-        <v>0</v>
+      <c r="D20" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Manasi Kumar</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-9773-8014</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Ioanna Giannopoulou</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-5982-9388</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Marie-Louise Reinholdt-Dunne</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-2535-1064</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Marie Tolstrup</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Nada Nasr</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-9178-2874</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Rasha Ismail</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Priya Korathu-Larson</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Susanne Grothus</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-6638-6434</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t> Ariane Sommer</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Benedikt B. Claus</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-9501-0954</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Lorin Stahlschmidt</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Julia Wager</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-4493-6356</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Barbara Hoff Esbjørn</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-4919-7209</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Mikael Julius Sømhovd</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Clara Johanna Anneli Turnstedt</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Sujith Ramachandran</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Regan Stewart</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Rosaura Orengo-Aguayo</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>LS</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>JW</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Martine Bouvard</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Jean-Luc Roulin</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Maya Boustani</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Shuang Lu</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Ailen Elias</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Thea Marran</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Juuli Puusepp</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Mairi Männamaa</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-5234-6474</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Triinu Ojalo</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t> 0000-0001-6587-9157</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Eftychia Argalia</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Maria Zafiropoulou</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>0009-0009-3930-999X</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>53</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Dovilė Mikučionytė</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>0009-0008-6990-9489</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Asta Adler</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-1428-422X</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0">
+        <v>55</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Dejan Stevanovic</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-8236-5246</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0">
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Fabio Fontana</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-4473-3364</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0">
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Michael Pereira da Silva</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-7628-3997</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Oldemar Mazzardo</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-5325-9815</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Priscila Lumi</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Marianne Aalberg</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-2719-9411</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0">
+        <v>61</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Hanne Kristensen</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Michał Furman-Zwiefka</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Vahdet Gormez</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-2704-9520</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Ayse Kılınçaslan</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-7332-3658</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Hiroko Fujisato</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>0009-0002-9715-2985</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Mitsuhiro Miyamae</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-3963-767X</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Noriko Kato</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Masaya Ito</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-2295-9733</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Kyosuke Kaneko</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Jana Kodrič</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-4522-3788</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Staša Stropnik</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Jasna Zupan</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Kristina Alice Waller</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Eeva Aronen</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Shuang Lu</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-1498-8238</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Ilona Skoczen</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-7545-5059</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Kristianne Stigsdatter Ovenstad</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Elisabeth Haukeland</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/80_Persons.xlsx
+++ b/rcads/data/xls/80_Persons.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_80_Persons"/>
   </sheets>
   <definedNames>
-    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$77</definedName>
+    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1551,6 +1551,342 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Jens Högström</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-5313-8498</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Tina Hörlin</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Weili Lu</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-2566-1537</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>NA (graduate student) 1</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0">
+        <v>83</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>NA (graduate student) 2</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Dagmar Kr. Hannesdottir</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-2610-6738</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0">
+        <v>85</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Urdur Njardvik</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-2993-9359</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0">
+        <v>86</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Gudmundur Skarphedinsson</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-8618-153X</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0">
+        <v>87</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>NA (student) 1</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0">
+        <v>88</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>NA (student) 2</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Zsófia Katalin Varga</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Lilla Károlyi</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Adrienn Vargay</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-9887-8772</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>János Major</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-6375-5756</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Szilvia Ádám</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-0052-3525</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0">
+        <v>94</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Mehak</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>0009-0002-1270-7540</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0">
+        <v>95</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Arshpreet Singh</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0">
+        <v>96</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Eliza Swindell</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>0009-0005-8281-663X</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0">
+        <v>97</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Jackson Baschnagel</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0">
+        <v>98</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Megan Chang</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0">
+        <v>99</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Hyun-sik Kim</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0">
+        <v>100</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Jenny Kim</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/80_Persons.xlsx
+++ b/rcads/data/xls/80_Persons.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_80_Persons"/>
   </sheets>
   <definedNames>
-    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$99</definedName>
+    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$103</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t> Ariane Sommer</t>
+          <t>Ariane Sommer</t>
         </is>
       </c>
       <c r="D29" s="0" t="b">
@@ -1884,6 +1884,58 @@
         </is>
       </c>
       <c r="D99" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0">
+        <v>101</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Julia Traub</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0">
+        <v>102</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Marie-Pier Lacroix</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0">
+        <v>103</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Olivia Buckley</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0">
+        <v>104</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Anastasia Dayer</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="b">
         <v>1</v>
       </c>
     </row>

--- a/rcads/data/xls/80_Persons.xlsx
+++ b/rcads/data/xls/80_Persons.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_80_Persons"/>
   </sheets>
   <definedNames>
-    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$103</definedName>
+    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1939,6 +1939,50 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0">
+        <v>105</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Selenge Baljinnyam</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>0000-0003-0997-3514</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0">
+        <v>106</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Guljanat Erlan</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0">
+        <v>107</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Sarnai Erdene</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/80_Persons.xlsx
+++ b/rcads/data/xls/80_Persons.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_80_Persons"/>
   </sheets>
   <definedNames>
-    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$106</definedName>
+    <definedName name="_80_Persons">'_80_Persons'!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1983,6 +1983,96 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0">
+        <v>108</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Adrienne Nguyen</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>0009-0006-5361-8906</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0">
+        <v>109</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Dario Esposito</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>0000-0001-5994-9788</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0">
+        <v>110</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Valeria Mammarella</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>0000-0002-9961-3741</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0">
+        <v>111</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Alessia Maffucci</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>0009-0007-2631-3557</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0">
+        <v>112</v>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Olivia Cox</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>0009-0006-8635-8231</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
